--- a/biology/Zoologie/Funambulus/Funambulus.xlsx
+++ b/biology/Zoologie/Funambulus/Funambulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Funambulus, regroupe des écureuils terrestres appelés écureuils palmistes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (2 juin 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (2 juin 2016) :
 Funambulus layardi (Blyth, 1849)
 Funambulus palmarum (Linnaeus, 1766)
 Funambulus pennantii Wroughton, 1905
@@ -550,7 +564,9 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont un aspect très proche des Tamias avec lesquels on doit prendre garde de ne pas les confondre, et portent le même nom en français qu'un autre écureuil, palmiste aussi : Epixerus ebii.
 </t>
